--- a/biology/Zoologie/Buresilia/Buresilia.xlsx
+++ b/biology/Zoologie/Buresilia/Buresilia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buresilia est un genre d'opilions eupnois de la famille des Phalangiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques de Turquie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques de Turquie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Catalogue of Opiliones (04/01/2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Catalogue of Opiliones (04/01/2023) :
 Buresilia kibrisensis  Kurt, Kunt &amp; Gucel, 2022
 Buresilia macrina (Roewer, 1956)
 Buresilia nigerrima (Roewer, 1956)</t>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Šilhavý, 1965 : « Die Weberknechte der Unterordnung Eupnoi aus Bulgarien; zugleich eine Revision Europäischer Gattungen der Unterfamilien Oligolophinae und Phalangiinae (Arachnoidea, Opilionidea). Ergebnisse der zoologischen Expedition der Tschechoslowakischen Akademie der Wissenschaften nach Bulgarien im Jahre 1957 (Teil V) Ceskoslovenská Spolecnost Entomologická. » Acta Entomologica Bohemoslovaca, vol. 62, no 5, p. 369-406.</t>
         </is>
